--- a/output/2022/sector_totals_2022.xlsx
+++ b/output/2022/sector_totals_2022.xlsx
@@ -497,19 +497,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1735.277173509687</v>
+        <v>1735.277173509688</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>660.7178426546778</v>
+        <v>660.7178426546777</v>
       </c>
       <c r="E3" t="n">
         <v>380.5486029700183</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>76.19207981083295</v>
       </c>
       <c r="G3" t="n">
         <v>4.427990049950878</v>
@@ -834,7 +834,7 @@
         <v>6878.954155324403</v>
       </c>
       <c r="F16" t="n">
-        <v>1490.743838469239</v>
+        <v>1566.935918280072</v>
       </c>
       <c r="G16" t="n">
         <v>34.42920758736232</v>

--- a/output/2022/sector_totals_2022.xlsx
+++ b/output/2022/sector_totals_2022.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>94.41249001862033</v>
       </c>
       <c r="C9" t="n">
         <v>94.41249001862033</v>
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>46.94126537280198</v>
       </c>
       <c r="C10" t="n">
         <v>46.94126537280198</v>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>329.2200721866216</v>
       </c>
       <c r="C11" t="n">
         <v>329.2200721866216</v>
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5518.726630227263</v>
+        <v>5989.300457805308</v>
       </c>
       <c r="C16" t="n">
         <v>545.1051435029821</v>
